--- a/DaySale_2025-05-26_11-23.xlsx
+++ b/DaySale_2025-05-26_11-23.xlsx
@@ -62,6 +62,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>EMPACOZA 25 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -116,6 +125,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -126,6 +147,15 @@
   </si>
   <si>
     <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t>Monday, 26 May, 2025 11:23 AM</t>
@@ -812,14 +842,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -828,14 +858,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -845,14 +875,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -861,14 +891,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -878,14 +908,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -894,14 +924,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -911,14 +941,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,66 +957,165 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>38</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>303.83999999999997</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>39</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>40</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>41</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>31</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>43</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>31</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>43</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>335.04000000000002</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1025,10 +1154,25 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
